--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8C91BB-FB99-4F72-877D-00889198F87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8E0C6A-B933-4E9F-8969-BEC5BBC5E227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="990" windowWidth="16290" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="990" windowWidth="19080" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <dimension ref="B1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2261,9 +2261,11 @@
         <v>4414.3</v>
       </c>
       <c r="G43" s="20">
-        <v>4432.3</v>
-      </c>
-      <c r="H43" s="16"/>
+        <v>4431.3999999999996</v>
+      </c>
+      <c r="H43" s="16">
+        <v>4456</v>
+      </c>
       <c r="I43" s="20"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8E0C6A-B933-4E9F-8969-BEC5BBC5E227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81A3711-531B-4468-9308-1C5A8B03B09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="990" windowWidth="19080" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="195" windowWidth="19080" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <dimension ref="B1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2264,9 +2264,11 @@
         <v>4431.3999999999996</v>
       </c>
       <c r="H43" s="16">
-        <v>4456</v>
-      </c>
-      <c r="I43" s="20"/>
+        <v>4464.3999999999996</v>
+      </c>
+      <c r="I43" s="20">
+        <v>4489.3999999999996</v>
+      </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81A3711-531B-4468-9308-1C5A8B03B09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254DAD90-8B48-4BF3-B0C1-0D80A62C1CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="195" windowWidth="19080" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19080" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <dimension ref="B1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2267,9 +2267,11 @@
         <v>4464.3999999999996</v>
       </c>
       <c r="I43" s="20">
-        <v>4489.3999999999996</v>
-      </c>
-      <c r="J43" s="4"/>
+        <v>4486.8</v>
+      </c>
+      <c r="J43" s="4">
+        <v>4509.3</v>
+      </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="16"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254DAD90-8B48-4BF3-B0C1-0D80A62C1CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A524790-4825-4CAF-8A82-30277626E4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19080" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19080" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <dimension ref="B1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2270,9 +2270,11 @@
         <v>4486.8</v>
       </c>
       <c r="J43" s="4">
-        <v>4509.3</v>
-      </c>
-      <c r="K43" s="4"/>
+        <v>4517.1000000000004</v>
+      </c>
+      <c r="K43" s="4">
+        <v>4539</v>
+      </c>
       <c r="L43" s="4"/>
       <c r="M43" s="16"/>
       <c r="N43" s="4"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A524790-4825-4CAF-8A82-30277626E4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72F57A5-8980-4206-9F60-974D2D9DABD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19080" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1095" windowWidth="16875" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2273,9 +2273,11 @@
         <v>4517.1000000000004</v>
       </c>
       <c r="K43" s="4">
-        <v>4539</v>
-      </c>
-      <c r="L43" s="4"/>
+        <v>4537</v>
+      </c>
+      <c r="L43" s="4">
+        <v>4553.5</v>
+      </c>
       <c r="M43" s="16"/>
       <c r="N43" s="4"/>
       <c r="O43" s="16"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72F57A5-8980-4206-9F60-974D2D9DABD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2319256D-860E-40D0-9899-1119E573F6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1095" windowWidth="16875" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="16875" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <dimension ref="B1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2276,9 +2276,11 @@
         <v>4537</v>
       </c>
       <c r="L43" s="4">
-        <v>4553.5</v>
-      </c>
-      <c r="M43" s="16"/>
+        <v>4552.8</v>
+      </c>
+      <c r="M43" s="16">
+        <v>4574.1000000000004</v>
+      </c>
       <c r="N43" s="4"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2319256D-860E-40D0-9899-1119E573F6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7FD852-0684-4F6B-9A1B-FBFDE501E6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="16875" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19815" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <dimension ref="B1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2279,9 +2279,11 @@
         <v>4552.8</v>
       </c>
       <c r="M43" s="16">
-        <v>4574.1000000000004</v>
-      </c>
-      <c r="N43" s="4"/>
+        <v>4567.8999999999996</v>
+      </c>
+      <c r="N43" s="4">
+        <v>4565.3999999999996</v>
+      </c>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
     </row>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7FD852-0684-4F6B-9A1B-FBFDE501E6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25107417-44BE-480D-AD84-A7F84632EEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19815" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="1260" windowWidth="19815" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <dimension ref="B1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2282,9 +2282,11 @@
         <v>4567.8999999999996</v>
       </c>
       <c r="N43" s="4">
-        <v>4565.3999999999996</v>
-      </c>
-      <c r="O43" s="16"/>
+        <v>4566</v>
+      </c>
+      <c r="O43" s="16">
+        <v>4574.8999999999996</v>
+      </c>
       <c r="P43" s="16"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25107417-44BE-480D-AD84-A7F84632EEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581E9613-A61C-4884-8D7A-70629FCD411F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="675" yWindow="1260" windowWidth="19815" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,7 +637,7 @@
   <dimension ref="B1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2285,9 +2285,11 @@
         <v>4566</v>
       </c>
       <c r="O43" s="16">
-        <v>4574.8999999999996</v>
-      </c>
-      <c r="P43" s="16"/>
+        <v>4580.3</v>
+      </c>
+      <c r="P43" s="16">
+        <v>4593.8</v>
+      </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" s="12"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581E9613-A61C-4884-8D7A-70629FCD411F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99579ACF-A06A-4037-95A5-E1E5341D2B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="1260" windowWidth="19815" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="765" windowWidth="19815" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>Series ID : SMS3693561000000001</t>
   </si>
@@ -634,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q53"/>
+  <dimension ref="B1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>93561</v>
       </c>
@@ -783,7 +783,7 @@
         <v>3506.6</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>93561</v>
       </c>
@@ -830,7 +830,7 @@
         <v>3326.3</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>93561</v>
       </c>
@@ -878,7 +878,7 @@
       </c>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>93561</v>
       </c>
@@ -925,7 +925,7 @@
         <v>3316.4</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>93561</v>
       </c>
@@ -972,7 +972,7 @@
         <v>3345.1</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>93561</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>3355.1</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>93561</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>3408.1</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>93561</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>3497.2</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>93561</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>93561</v>
       </c>
@@ -2064,40 +2064,40 @@
         <v>7</v>
       </c>
       <c r="E39" s="4">
-        <v>4503.7</v>
+        <v>4499.3999999999996</v>
       </c>
       <c r="F39" s="4">
-        <v>4521.3</v>
+        <v>4520.2</v>
       </c>
       <c r="G39" s="4">
-        <v>4531.2</v>
+        <v>4530.2</v>
       </c>
       <c r="H39" s="4">
-        <v>4534.6000000000004</v>
+        <v>4533.5</v>
       </c>
       <c r="I39" s="4">
-        <v>4540.5</v>
+        <v>4544.7</v>
       </c>
       <c r="J39" s="4">
-        <v>4552.7</v>
+        <v>4563.3</v>
       </c>
       <c r="K39" s="4">
-        <v>4551.5</v>
+        <v>4540.3999999999996</v>
       </c>
       <c r="L39" s="4">
-        <v>4555.7</v>
+        <v>4551.6000000000004</v>
       </c>
       <c r="M39" s="4">
-        <v>4566.3999999999996</v>
+        <v>4578.7</v>
       </c>
       <c r="N39" s="4">
-        <v>4584.2</v>
+        <v>4587.2</v>
       </c>
       <c r="O39" s="16">
-        <v>4594.3</v>
+        <v>4593.7</v>
       </c>
       <c r="P39" s="16">
-        <v>4603.5</v>
+        <v>4601.1000000000004</v>
       </c>
       <c r="Q39" s="14"/>
     </row>
@@ -2112,40 +2112,40 @@
         <v>7</v>
       </c>
       <c r="E40" s="16">
-        <v>4613.3</v>
+        <v>4607</v>
       </c>
       <c r="F40" s="16">
-        <v>4624.6000000000004</v>
+        <v>4623.3</v>
       </c>
       <c r="G40" s="20">
-        <v>4634.5</v>
+        <v>4633.3999999999996</v>
       </c>
       <c r="H40" s="16">
-        <v>4645.7</v>
+        <v>4644.1000000000004</v>
       </c>
       <c r="I40" s="20">
-        <v>4652.3</v>
+        <v>4643.8999999999996</v>
       </c>
       <c r="J40" s="4">
-        <v>4657.2</v>
+        <v>4665</v>
       </c>
       <c r="K40" s="4">
-        <v>4648.7</v>
+        <v>4629.8</v>
       </c>
       <c r="L40" s="4">
-        <v>4655.3</v>
+        <v>4645.3</v>
       </c>
       <c r="M40" s="16">
-        <v>4665.2</v>
+        <v>4684.6000000000004</v>
       </c>
       <c r="N40" s="4">
-        <v>4658.6000000000004</v>
+        <v>4661.3</v>
       </c>
       <c r="O40" s="16">
-        <v>4680.3</v>
+        <v>4677.3999999999996</v>
       </c>
       <c r="P40" s="20">
-        <v>4687.2</v>
+        <v>4683.6000000000004</v>
       </c>
       <c r="Q40" s="14"/>
     </row>
@@ -2160,40 +2160,40 @@
         <v>7</v>
       </c>
       <c r="E41" s="16">
-        <v>4710.2</v>
+        <v>4709</v>
       </c>
       <c r="F41" s="7">
-        <v>4715.1000000000004</v>
+        <v>4713</v>
       </c>
       <c r="G41" s="20">
-        <v>4646.3</v>
+        <v>4646.5</v>
       </c>
       <c r="H41" s="6">
-        <v>3743.3</v>
+        <v>3750.6</v>
       </c>
       <c r="I41" s="20">
-        <v>3791.9</v>
+        <v>3809.6</v>
       </c>
       <c r="J41" s="4">
-        <v>3862.1</v>
+        <v>3876.1</v>
       </c>
       <c r="K41" s="4">
-        <v>3941.4</v>
+        <v>3906.8</v>
       </c>
       <c r="L41" s="4">
-        <v>4018</v>
+        <v>3999.5</v>
       </c>
       <c r="M41" s="16">
-        <v>4063.2</v>
+        <v>4093.7</v>
       </c>
       <c r="N41" s="4">
-        <v>4092.7</v>
+        <v>4098.5</v>
       </c>
       <c r="O41" s="16">
-        <v>4100.8999999999996</v>
+        <v>4107.3</v>
       </c>
       <c r="P41" s="20">
-        <v>4110.7</v>
+        <v>4106.6000000000004</v>
       </c>
       <c r="Q41" s="14"/>
     </row>
@@ -2208,40 +2208,40 @@
         <v>7</v>
       </c>
       <c r="E42" s="16">
-        <v>4116.7</v>
+        <v>4120</v>
       </c>
       <c r="F42" s="20">
-        <v>4128.3999999999996</v>
+        <v>4125.7</v>
       </c>
       <c r="G42" s="20">
-        <v>4147.2</v>
+        <v>4151.3999999999996</v>
       </c>
       <c r="H42" s="16">
-        <v>4165.3</v>
+        <v>4176.7</v>
       </c>
       <c r="I42" s="20">
-        <v>4184.8</v>
+        <v>4204.8</v>
       </c>
       <c r="J42" s="4">
-        <v>4210</v>
+        <v>4229.8999999999996</v>
       </c>
       <c r="K42" s="4">
-        <v>4272.8999999999996</v>
+        <v>4273.7</v>
       </c>
       <c r="L42" s="4">
-        <v>4286.8999999999996</v>
+        <v>4305.5</v>
       </c>
       <c r="M42" s="16">
-        <v>4295.1000000000004</v>
+        <v>4331.3</v>
       </c>
       <c r="N42" s="4">
-        <v>4340.3999999999996</v>
+        <v>4364.5</v>
       </c>
       <c r="O42" s="16">
-        <v>4362</v>
+        <v>4383.1000000000004</v>
       </c>
       <c r="P42" s="16">
-        <v>4391.3999999999996</v>
+        <v>4411.3</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
@@ -2255,229 +2255,254 @@
         <v>7</v>
       </c>
       <c r="E43" s="16">
-        <v>4398</v>
+        <v>4431.8999999999996</v>
       </c>
       <c r="F43" s="20">
-        <v>4414.3</v>
+        <v>4465.8999999999996</v>
       </c>
       <c r="G43" s="20">
-        <v>4431.3999999999996</v>
+        <v>4486.3999999999996</v>
       </c>
       <c r="H43" s="16">
-        <v>4464.3999999999996</v>
+        <v>4507.7</v>
       </c>
       <c r="I43" s="20">
-        <v>4486.8</v>
+        <v>4537.7</v>
       </c>
       <c r="J43" s="4">
-        <v>4517.1000000000004</v>
+        <v>4560.6000000000004</v>
       </c>
       <c r="K43" s="4">
-        <v>4537</v>
+        <v>4605.3</v>
       </c>
       <c r="L43" s="4">
-        <v>4552.8</v>
+        <v>4621.8</v>
       </c>
       <c r="M43" s="16">
-        <v>4567.8999999999996</v>
+        <v>4616.5</v>
       </c>
       <c r="N43" s="4">
-        <v>4566</v>
+        <v>4600</v>
       </c>
       <c r="O43" s="16">
-        <v>4580.3</v>
+        <v>4612.6000000000004</v>
       </c>
       <c r="P43" s="16">
-        <v>4593.8</v>
+        <v>4646.5</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
+      <c r="B44" s="3">
+        <v>93561</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="16">
+        <v>4678.7</v>
+      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C45" s="21" t="s">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C46" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C46" s="8">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C47" s="8">
         <v>32874</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="9">
         <f>E11</f>
         <v>3615.9</v>
       </c>
-      <c r="J46" s="14"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C47" s="8">
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C48" s="8">
         <v>33909</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D48" s="9">
         <f>O13</f>
         <v>3266.6</v>
       </c>
-      <c r="E47" s="10">
-        <f t="shared" ref="E47:E53" si="0">D47/D46-1</f>
+      <c r="E48" s="10">
+        <f t="shared" ref="E48:E54" si="0">D48/D47-1</f>
         <v>-9.6601122818662066E-2</v>
       </c>
-      <c r="F47" s="9">
-        <f t="shared" ref="F47:F53" si="1">D47-D46</f>
+      <c r="F48" s="9">
+        <f t="shared" ref="F48:F54" si="1">D48-D47</f>
         <v>-349.30000000000018</v>
       </c>
-      <c r="G47">
+      <c r="G48">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C48" s="8">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C49" s="8">
         <v>36892</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="9">
         <f>E22</f>
         <v>3767.8</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E49" s="10">
         <f t="shared" si="0"/>
         <v>0.15343170268781003</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F49" s="9">
         <f t="shared" si="1"/>
         <v>501.20000000000027</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>98</v>
       </c>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C49" s="8">
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C50" s="8">
         <v>37834</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="9">
         <f>L24</f>
         <v>3540.3</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E50" s="10">
         <f t="shared" si="0"/>
         <v>-6.0380062636021026E-2</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F50" s="9">
         <f t="shared" si="1"/>
         <v>-227.5</v>
       </c>
-      <c r="G49">
+      <c r="G50">
         <v>31</v>
       </c>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C50" s="8">
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C51" s="8">
         <v>39692</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="9">
         <f>M29</f>
         <v>3844.3</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E51" s="10">
         <f t="shared" si="0"/>
         <v>8.586842922916138E-2</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <v>61</v>
       </c>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C51" s="8">
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C52" s="8">
         <v>40118</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D52" s="9">
         <f>O30</f>
         <v>3706.3</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E52" s="10">
         <f t="shared" si="0"/>
         <v>-3.5897302499804939E-2</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="9">
         <f t="shared" si="1"/>
         <v>-138</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>14</v>
       </c>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C52" s="11">
-        <v>43862</v>
-      </c>
-      <c r="D52" s="9">
-        <f>F41</f>
-        <v>4715.1000000000004</v>
-      </c>
-      <c r="E52" s="10">
-        <f t="shared" si="0"/>
-        <v>0.27218519817607856</v>
-      </c>
-      <c r="F52" s="9">
-        <f t="shared" si="1"/>
-        <v>1008.8000000000002</v>
-      </c>
-      <c r="G52">
-        <v>123</v>
-      </c>
       <c r="H52" s="9"/>
-      <c r="I52" s="14"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C53" s="11">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="D53" s="9">
-        <f>H41</f>
-        <v>3743.3</v>
+        <f>F41</f>
+        <v>4713</v>
       </c>
       <c r="E53" s="10">
         <f t="shared" si="0"/>
-        <v>-0.20610379419312419</v>
+        <v>0.27161859536464927</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" si="1"/>
-        <v>-971.80000000000018</v>
+        <v>1006.6999999999998</v>
       </c>
       <c r="G53">
+        <v>123</v>
+      </c>
+      <c r="H53" s="9"/>
+      <c r="I53" s="14"/>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C54" s="11">
+        <v>43922</v>
+      </c>
+      <c r="D54" s="9">
+        <f>H41</f>
+        <v>3750.6</v>
+      </c>
+      <c r="E54" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.20420114576702741</v>
+      </c>
+      <c r="F54" s="9">
+        <f t="shared" si="1"/>
+        <v>-962.40000000000009</v>
+      </c>
+      <c r="G54">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99579ACF-A06A-4037-95A5-E1E5341D2B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B48CDEF-6710-42F8-887A-51B5399AFC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="765" windowWidth="19815" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17985" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <dimension ref="B1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2302,9 +2302,11 @@
         <v>7</v>
       </c>
       <c r="E44" s="16">
-        <v>4678.7</v>
-      </c>
-      <c r="F44" s="20"/>
+        <v>4657.3</v>
+      </c>
+      <c r="F44" s="20">
+        <v>4669.7</v>
+      </c>
       <c r="G44" s="20"/>
       <c r="H44" s="16"/>
       <c r="I44" s="20"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B48CDEF-6710-42F8-887A-51B5399AFC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F7D06B-C00C-4BC1-8699-BC6C43EDAB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17985" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18780" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2305,9 +2305,11 @@
         <v>4657.3</v>
       </c>
       <c r="F44" s="20">
-        <v>4669.7</v>
-      </c>
-      <c r="G44" s="20"/>
+        <v>4672</v>
+      </c>
+      <c r="G44" s="20">
+        <v>4683.1000000000004</v>
+      </c>
       <c r="H44" s="16"/>
       <c r="I44" s="20"/>
       <c r="J44" s="4"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F7D06B-C00C-4BC1-8699-BC6C43EDAB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117FCF1B-41C7-4BDD-A16E-202B1865FF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18780" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18780" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <dimension ref="B1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2308,9 +2308,11 @@
         <v>4672</v>
       </c>
       <c r="G44" s="20">
-        <v>4683.1000000000004</v>
-      </c>
-      <c r="H44" s="16"/>
+        <v>4673.8</v>
+      </c>
+      <c r="H44" s="16">
+        <v>4668.8999999999996</v>
+      </c>
       <c r="I44" s="20"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117FCF1B-41C7-4BDD-A16E-202B1865FF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5952829D-2096-417A-8152-2292CCB0BE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18780" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="14520" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2064,40 +2064,40 @@
         <v>7</v>
       </c>
       <c r="E39" s="4">
-        <v>4499.3999999999996</v>
+        <v>4501.3999999999996</v>
       </c>
       <c r="F39" s="4">
-        <v>4520.2</v>
+        <v>4522.3999999999996</v>
       </c>
       <c r="G39" s="4">
-        <v>4530.2</v>
+        <v>4534.3</v>
       </c>
       <c r="H39" s="4">
-        <v>4533.5</v>
+        <v>4538.3</v>
       </c>
       <c r="I39" s="4">
-        <v>4544.7</v>
+        <v>4547.6000000000004</v>
       </c>
       <c r="J39" s="4">
-        <v>4563.3</v>
+        <v>4565.1000000000004</v>
       </c>
       <c r="K39" s="4">
-        <v>4540.3999999999996</v>
+        <v>4547.7</v>
       </c>
       <c r="L39" s="4">
-        <v>4551.6000000000004</v>
+        <v>4552.6000000000004</v>
       </c>
       <c r="M39" s="4">
-        <v>4578.7</v>
+        <v>4561.3999999999996</v>
       </c>
       <c r="N39" s="4">
-        <v>4587.2</v>
+        <v>4570.1000000000004</v>
       </c>
       <c r="O39" s="16">
-        <v>4593.7</v>
+        <v>4588.3999999999996</v>
       </c>
       <c r="P39" s="16">
-        <v>4601.1000000000004</v>
+        <v>4599</v>
       </c>
       <c r="Q39" s="14"/>
     </row>
@@ -2112,40 +2112,40 @@
         <v>7</v>
       </c>
       <c r="E40" s="16">
-        <v>4607</v>
+        <v>4611.3999999999996</v>
       </c>
       <c r="F40" s="16">
-        <v>4623.3</v>
+        <v>4624</v>
       </c>
       <c r="G40" s="20">
-        <v>4633.3999999999996</v>
+        <v>4638.3</v>
       </c>
       <c r="H40" s="16">
-        <v>4644.1000000000004</v>
+        <v>4651.1000000000004</v>
       </c>
       <c r="I40" s="20">
-        <v>4643.8999999999996</v>
+        <v>4654.8</v>
       </c>
       <c r="J40" s="4">
-        <v>4665</v>
+        <v>4662.7</v>
       </c>
       <c r="K40" s="4">
-        <v>4629.8</v>
+        <v>4644.2</v>
       </c>
       <c r="L40" s="4">
-        <v>4645.3</v>
+        <v>4653.2</v>
       </c>
       <c r="M40" s="16">
-        <v>4684.6000000000004</v>
+        <v>4660.7</v>
       </c>
       <c r="N40" s="4">
-        <v>4661.3</v>
+        <v>4641.2</v>
       </c>
       <c r="O40" s="16">
-        <v>4677.3999999999996</v>
+        <v>4672.5</v>
       </c>
       <c r="P40" s="20">
-        <v>4683.6000000000004</v>
+        <v>4681</v>
       </c>
       <c r="Q40" s="14"/>
     </row>
@@ -2160,40 +2160,40 @@
         <v>7</v>
       </c>
       <c r="E41" s="16">
-        <v>4709</v>
+        <v>4710.2</v>
       </c>
       <c r="F41" s="7">
-        <v>4713</v>
+        <v>4709.5</v>
       </c>
       <c r="G41" s="20">
-        <v>4646.5</v>
+        <v>4651</v>
       </c>
       <c r="H41" s="6">
-        <v>3750.6</v>
+        <v>3761.3</v>
       </c>
       <c r="I41" s="20">
-        <v>3809.6</v>
+        <v>3805.1</v>
       </c>
       <c r="J41" s="4">
-        <v>3876.1</v>
+        <v>3870.2</v>
       </c>
       <c r="K41" s="4">
-        <v>3906.8</v>
+        <v>3941.2</v>
       </c>
       <c r="L41" s="4">
-        <v>3999.5</v>
+        <v>4023.9</v>
       </c>
       <c r="M41" s="16">
-        <v>4093.7</v>
+        <v>4060.7</v>
       </c>
       <c r="N41" s="4">
-        <v>4098.5</v>
+        <v>4088.5</v>
       </c>
       <c r="O41" s="16">
-        <v>4107.3</v>
+        <v>4098.7</v>
       </c>
       <c r="P41" s="20">
-        <v>4106.6000000000004</v>
+        <v>4104.7</v>
       </c>
       <c r="Q41" s="14"/>
     </row>
@@ -2208,40 +2208,40 @@
         <v>7</v>
       </c>
       <c r="E42" s="16">
-        <v>4120</v>
+        <v>4119.6000000000004</v>
       </c>
       <c r="F42" s="20">
-        <v>4125.7</v>
+        <v>4124.3</v>
       </c>
       <c r="G42" s="20">
-        <v>4151.3999999999996</v>
+        <v>4155.6000000000004</v>
       </c>
       <c r="H42" s="16">
-        <v>4176.7</v>
+        <v>4184.1000000000004</v>
       </c>
       <c r="I42" s="20">
-        <v>4204.8</v>
+        <v>4199.6000000000004</v>
       </c>
       <c r="J42" s="4">
-        <v>4229.8999999999996</v>
+        <v>4219.7</v>
       </c>
       <c r="K42" s="4">
-        <v>4273.7</v>
+        <v>4245.8</v>
       </c>
       <c r="L42" s="4">
-        <v>4305.5</v>
+        <v>4266.1000000000004</v>
       </c>
       <c r="M42" s="16">
-        <v>4331.3</v>
+        <v>4296</v>
       </c>
       <c r="N42" s="4">
-        <v>4364.5</v>
+        <v>4336.3999999999996</v>
       </c>
       <c r="O42" s="16">
-        <v>4383.1000000000004</v>
+        <v>4369.7</v>
       </c>
       <c r="P42" s="16">
-        <v>4411.3</v>
+        <v>4406.8</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
@@ -2255,31 +2255,31 @@
         <v>7</v>
       </c>
       <c r="E43" s="16">
-        <v>4431.8999999999996</v>
+        <v>4433</v>
       </c>
       <c r="F43" s="20">
-        <v>4465.8999999999996</v>
+        <v>4469.3</v>
       </c>
       <c r="G43" s="20">
-        <v>4486.3999999999996</v>
+        <v>4491.3999999999996</v>
       </c>
       <c r="H43" s="16">
-        <v>4507.7</v>
+        <v>4511.5</v>
       </c>
       <c r="I43" s="20">
-        <v>4537.7</v>
+        <v>4532.8</v>
       </c>
       <c r="J43" s="4">
-        <v>4560.6000000000004</v>
+        <v>4549.2</v>
       </c>
       <c r="K43" s="4">
-        <v>4605.3</v>
+        <v>4552</v>
       </c>
       <c r="L43" s="4">
-        <v>4621.8</v>
+        <v>4565.5</v>
       </c>
       <c r="M43" s="16">
-        <v>4616.5</v>
+        <v>4574.5</v>
       </c>
       <c r="N43" s="4">
         <v>4600</v>
@@ -2311,9 +2311,11 @@
         <v>4673.8</v>
       </c>
       <c r="H44" s="16">
-        <v>4668.8999999999996</v>
-      </c>
-      <c r="I44" s="20"/>
+        <v>4665</v>
+      </c>
+      <c r="I44" s="20">
+        <v>4679.3</v>
+      </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -2470,15 +2472,15 @@
       </c>
       <c r="D53" s="9">
         <f>F41</f>
-        <v>4713</v>
+        <v>4709.5</v>
       </c>
       <c r="E53" s="10">
         <f t="shared" si="0"/>
-        <v>0.27161859536464927</v>
+        <v>0.27067425734560069</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" si="1"/>
-        <v>1006.6999999999998</v>
+        <v>1003.1999999999998</v>
       </c>
       <c r="G53">
         <v>123</v>
@@ -2492,15 +2494,15 @@
       </c>
       <c r="D54" s="9">
         <f>H41</f>
-        <v>3750.6</v>
+        <v>3761.3</v>
       </c>
       <c r="E54" s="10">
         <f t="shared" si="0"/>
-        <v>-0.20420114576702741</v>
+        <v>-0.20133772162649954</v>
       </c>
       <c r="F54" s="9">
         <f t="shared" si="1"/>
-        <v>-962.40000000000009</v>
+        <v>-948.19999999999982</v>
       </c>
       <c r="G54">
         <v>2</v>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5952829D-2096-417A-8152-2292CCB0BE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24617EF8-6EC0-40EF-AFFC-4E7799E30D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="14520" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="555" windowWidth="18330" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2314,9 +2314,11 @@
         <v>4665</v>
       </c>
       <c r="I44" s="20">
-        <v>4679.3</v>
-      </c>
-      <c r="J44" s="4"/>
+        <v>4677.3</v>
+      </c>
+      <c r="J44" s="4">
+        <v>4688.8999999999996</v>
+      </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="16"/>
@@ -2381,8 +2383,9 @@
       <c r="G48">
         <v>34</v>
       </c>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="Q48" s="14"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="8">
         <v>36892</v>
       </c>
@@ -2402,8 +2405,9 @@
         <v>98</v>
       </c>
       <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="Q49" s="14"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="8">
         <v>37834</v>
       </c>
@@ -2424,7 +2428,7 @@
       </c>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="8">
         <v>39692</v>
       </c>
@@ -2445,7 +2449,7 @@
       </c>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="8">
         <v>40118</v>
       </c>
@@ -2466,7 +2470,7 @@
       </c>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="11">
         <v>43862</v>
       </c>
@@ -2488,7 +2492,7 @@
       <c r="H53" s="9"/>
       <c r="I53" s="14"/>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="11">
         <v>43922</v>
       </c>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24617EF8-6EC0-40EF-AFFC-4E7799E30D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F33359-0E45-4B32-9F95-60F3E13A99A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="555" windowWidth="18330" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="870" windowWidth="14160" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2317,9 +2317,11 @@
         <v>4677.3</v>
       </c>
       <c r="J44" s="4">
-        <v>4688.8999999999996</v>
-      </c>
-      <c r="K44" s="4"/>
+        <v>4677.2</v>
+      </c>
+      <c r="K44" s="4">
+        <v>4669.1000000000004</v>
+      </c>
       <c r="L44" s="4"/>
       <c r="M44" s="16"/>
       <c r="N44" s="4"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F33359-0E45-4B32-9F95-60F3E13A99A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFB4A5B-6921-4849-B67E-206D87533C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="870" windowWidth="14160" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="4275" windowWidth="14160" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2320,9 +2320,11 @@
         <v>4677.2</v>
       </c>
       <c r="K44" s="4">
-        <v>4669.1000000000004</v>
-      </c>
-      <c r="L44" s="4"/>
+        <v>4667.5</v>
+      </c>
+      <c r="L44" s="4">
+        <v>4669.5</v>
+      </c>
       <c r="M44" s="16"/>
       <c r="N44" s="4"/>
       <c r="O44" s="16"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFB4A5B-6921-4849-B67E-206D87533C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC80793-E9C8-4DB9-9716-410EF721A20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="4275" windowWidth="14160" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="450" windowWidth="19185" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <dimension ref="B1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2323,9 +2323,11 @@
         <v>4667.5</v>
       </c>
       <c r="L44" s="4">
-        <v>4669.5</v>
-      </c>
-      <c r="M44" s="16"/>
+        <v>4681.6000000000004</v>
+      </c>
+      <c r="M44" s="16">
+        <v>4704.5</v>
+      </c>
       <c r="N44" s="4"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC80793-E9C8-4DB9-9716-410EF721A20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E61C70-7D2C-4401-A6C1-CEF977468EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="450" windowWidth="19185" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18045" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Volovelskaya, Elena (dol)</author>
+  </authors>
+  <commentList>
+    <comment ref="F41" authorId="0" shapeId="0" xr:uid="{13F738F7-102D-4D17-962A-EB76BFEBA620}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>last pre-pandemic month</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -118,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -163,6 +186,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -242,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -296,6 +331,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -311,6 +349,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -633,11 +675,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2159,10 +2201,10 @@
       <c r="D41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="7">
         <v>4710.2</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="23">
         <v>4709.5</v>
       </c>
       <c r="G41" s="20">
@@ -2326,9 +2368,11 @@
         <v>4681.6000000000004</v>
       </c>
       <c r="M44" s="16">
-        <v>4704.5</v>
-      </c>
-      <c r="N44" s="4"/>
+        <v>4707.1000000000004</v>
+      </c>
+      <c r="N44" s="4">
+        <v>4693</v>
+      </c>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
     </row>
@@ -2478,19 +2522,19 @@
     </row>
     <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="11">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="D53" s="9">
-        <f>F41</f>
-        <v>4709.5</v>
+        <f>E41</f>
+        <v>4710.2</v>
       </c>
       <c r="E53" s="10">
         <f t="shared" si="0"/>
-        <v>0.27067425734560069</v>
+        <v>0.27086312494941045</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" si="1"/>
-        <v>1003.1999999999998</v>
+        <v>1003.8999999999996</v>
       </c>
       <c r="G53">
         <v>123</v>
@@ -2508,11 +2552,11 @@
       </c>
       <c r="E54" s="10">
         <f t="shared" si="0"/>
-        <v>-0.20133772162649954</v>
+        <v>-0.20145641374039314</v>
       </c>
       <c r="F54" s="9">
         <f t="shared" si="1"/>
-        <v>-948.19999999999982</v>
+        <v>-948.89999999999964</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -2526,5 +2570,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E61C70-7D2C-4401-A6C1-CEF977468EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88E1CA7-869A-47BA-86AE-C57DA1CA218C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18045" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="120" windowWidth="18510" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -325,14 +325,14 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -349,10 +349,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,7 +675,7 @@
   <dimension ref="B1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2204,7 +2200,7 @@
       <c r="E41" s="7">
         <v>4710.2</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="21">
         <v>4709.5</v>
       </c>
       <c r="G41" s="20">
@@ -2371,9 +2367,11 @@
         <v>4707.1000000000004</v>
       </c>
       <c r="N44" s="4">
-        <v>4693</v>
-      </c>
-      <c r="O44" s="16"/>
+        <v>4694.8999999999996</v>
+      </c>
+      <c r="O44" s="16">
+        <v>4696.2</v>
+      </c>
       <c r="P44" s="16"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
@@ -2394,12 +2392,12 @@
       <c r="P45" s="13"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
       <c r="G46" t="s">
         <v>25</v>
       </c>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88E1CA7-869A-47BA-86AE-C57DA1CA218C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF55EBF2-AB7A-4C1A-A278-67109BB45236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="120" windowWidth="18510" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18510" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -675,7 +675,7 @@
   <dimension ref="B1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2370,9 +2370,11 @@
         <v>4694.8999999999996</v>
       </c>
       <c r="O44" s="16">
-        <v>4696.2</v>
-      </c>
-      <c r="P44" s="16"/>
+        <v>4691.8999999999996</v>
+      </c>
+      <c r="P44" s="16">
+        <v>4703.5</v>
+      </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" s="12"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF55EBF2-AB7A-4C1A-A278-67109BB45236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE12DDDE-D5FD-472E-A181-D766DC01E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18510" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1185" windowWidth="18510" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>Series ID : SMS3693561000000001</t>
   </si>
@@ -141,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -185,12 +185,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -277,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -325,9 +319,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -352,9 +343,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -392,9 +383,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,26 +418,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,26 +453,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -672,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q54"/>
+  <dimension ref="B1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2150,40 +2107,40 @@
         <v>7</v>
       </c>
       <c r="E40" s="16">
-        <v>4611.3999999999996</v>
+        <v>4616.3</v>
       </c>
       <c r="F40" s="16">
-        <v>4624</v>
+        <v>4627.5</v>
       </c>
       <c r="G40" s="20">
-        <v>4638.3</v>
+        <v>4639.8999999999996</v>
       </c>
       <c r="H40" s="16">
-        <v>4651.1000000000004</v>
+        <v>4656</v>
       </c>
       <c r="I40" s="20">
-        <v>4654.8</v>
+        <v>4660.3</v>
       </c>
       <c r="J40" s="4">
-        <v>4662.7</v>
+        <v>4660.8</v>
       </c>
       <c r="K40" s="4">
-        <v>4644.2</v>
+        <v>4642.1000000000004</v>
       </c>
       <c r="L40" s="4">
-        <v>4653.2</v>
+        <v>4649.8</v>
       </c>
       <c r="M40" s="16">
-        <v>4660.7</v>
+        <v>4659.3999999999996</v>
       </c>
       <c r="N40" s="4">
-        <v>4641.2</v>
+        <v>4653.5</v>
       </c>
       <c r="O40" s="16">
-        <v>4672.5</v>
+        <v>4675.1000000000004</v>
       </c>
       <c r="P40" s="20">
-        <v>4681</v>
+        <v>4682.8999999999996</v>
       </c>
       <c r="Q40" s="14"/>
     </row>
@@ -2197,41 +2154,41 @@
       <c r="D41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="7">
-        <v>4710.2</v>
-      </c>
-      <c r="F41" s="21">
-        <v>4709.5</v>
+      <c r="E41" s="16">
+        <v>4700.3</v>
+      </c>
+      <c r="F41" s="7">
+        <v>4709.6000000000004</v>
       </c>
       <c r="G41" s="20">
-        <v>4651</v>
+        <v>4652.3</v>
       </c>
       <c r="H41" s="6">
-        <v>3761.3</v>
+        <v>3751.6</v>
       </c>
       <c r="I41" s="20">
-        <v>3805.1</v>
+        <v>3802.7</v>
       </c>
       <c r="J41" s="4">
-        <v>3870.2</v>
+        <v>3866.4</v>
       </c>
       <c r="K41" s="4">
-        <v>3941.2</v>
+        <v>3932.1</v>
       </c>
       <c r="L41" s="4">
-        <v>4023.9</v>
+        <v>4016.1</v>
       </c>
       <c r="M41" s="16">
-        <v>4060.7</v>
+        <v>4057</v>
       </c>
       <c r="N41" s="4">
-        <v>4088.5</v>
+        <v>4091.3</v>
       </c>
       <c r="O41" s="16">
-        <v>4098.7</v>
+        <v>4107.8</v>
       </c>
       <c r="P41" s="20">
-        <v>4104.7</v>
+        <v>4108.5</v>
       </c>
       <c r="Q41" s="14"/>
     </row>
@@ -2246,40 +2203,40 @@
         <v>7</v>
       </c>
       <c r="E42" s="16">
-        <v>4119.6000000000004</v>
+        <v>4110.1000000000004</v>
       </c>
       <c r="F42" s="20">
-        <v>4124.3</v>
+        <v>4125.1000000000004</v>
       </c>
       <c r="G42" s="20">
-        <v>4155.6000000000004</v>
+        <v>4157</v>
       </c>
       <c r="H42" s="16">
-        <v>4184.1000000000004</v>
+        <v>4176.8</v>
       </c>
       <c r="I42" s="20">
-        <v>4199.6000000000004</v>
+        <v>4197.7</v>
       </c>
       <c r="J42" s="4">
-        <v>4219.7</v>
+        <v>4215.6000000000004</v>
       </c>
       <c r="K42" s="4">
-        <v>4245.8</v>
+        <v>4237</v>
       </c>
       <c r="L42" s="4">
-        <v>4266.1000000000004</v>
+        <v>4259.5</v>
       </c>
       <c r="M42" s="16">
-        <v>4296</v>
+        <v>4287.3</v>
       </c>
       <c r="N42" s="4">
-        <v>4336.3999999999996</v>
+        <v>4358.1000000000004</v>
       </c>
       <c r="O42" s="16">
-        <v>4369.7</v>
+        <v>4384</v>
       </c>
       <c r="P42" s="16">
-        <v>4406.8</v>
+        <v>4420.8999999999996</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
@@ -2293,40 +2250,40 @@
         <v>7</v>
       </c>
       <c r="E43" s="16">
-        <v>4433</v>
+        <v>4441</v>
       </c>
       <c r="F43" s="20">
-        <v>4469.3</v>
+        <v>4472.8</v>
       </c>
       <c r="G43" s="20">
-        <v>4491.3999999999996</v>
+        <v>4494.8</v>
       </c>
       <c r="H43" s="16">
-        <v>4511.5</v>
+        <v>4520.2</v>
       </c>
       <c r="I43" s="20">
-        <v>4532.8</v>
+        <v>4543.7</v>
       </c>
       <c r="J43" s="4">
-        <v>4549.2</v>
+        <v>4563.3</v>
       </c>
       <c r="K43" s="4">
-        <v>4552</v>
+        <v>4575.3999999999996</v>
       </c>
       <c r="L43" s="4">
-        <v>4565.5</v>
+        <v>4587.3999999999996</v>
       </c>
       <c r="M43" s="16">
-        <v>4574.5</v>
+        <v>4596.8</v>
       </c>
       <c r="N43" s="4">
-        <v>4600</v>
+        <v>4603</v>
       </c>
       <c r="O43" s="16">
-        <v>4612.6000000000004</v>
+        <v>4614.2</v>
       </c>
       <c r="P43" s="16">
-        <v>4646.5</v>
+        <v>4624.2</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
@@ -2340,231 +2297,259 @@
         <v>7</v>
       </c>
       <c r="E44" s="16">
-        <v>4657.3</v>
+        <v>4661.8</v>
       </c>
       <c r="F44" s="20">
-        <v>4672</v>
+        <v>4669.6000000000004</v>
       </c>
       <c r="G44" s="20">
-        <v>4673.8</v>
+        <v>4679.2</v>
       </c>
       <c r="H44" s="16">
-        <v>4665</v>
+        <v>4674.8999999999996</v>
       </c>
       <c r="I44" s="20">
-        <v>4677.3</v>
+        <v>4692.6000000000004</v>
       </c>
       <c r="J44" s="4">
-        <v>4677.2</v>
+        <v>4703.1000000000004</v>
       </c>
       <c r="K44" s="4">
-        <v>4667.5</v>
+        <v>4656</v>
       </c>
       <c r="L44" s="4">
-        <v>4681.6000000000004</v>
+        <v>4660.6000000000004</v>
       </c>
       <c r="M44" s="16">
-        <v>4707.1000000000004</v>
+        <v>4668</v>
       </c>
       <c r="N44" s="4">
-        <v>4694.8999999999996</v>
+        <v>4678.1000000000004</v>
       </c>
       <c r="O44" s="16">
-        <v>4691.8999999999996</v>
+        <v>4679.8999999999996</v>
       </c>
       <c r="P44" s="16">
-        <v>4703.5</v>
+        <v>4693.3</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
+      <c r="B45" s="3">
+        <v>93561</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="16">
+        <v>4713.8999999999996</v>
+      </c>
+      <c r="F45" s="20">
+        <v>4703.7</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="14"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C46" s="22" t="s">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C47" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C47" s="8">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C48" s="8">
         <v>32874</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D48" s="9">
         <f>E11</f>
         <v>3615.9</v>
       </c>
-      <c r="J47" s="14"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C48" s="8">
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C49" s="8">
         <v>33909</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="9">
         <f>O13</f>
         <v>3266.6</v>
       </c>
-      <c r="E48" s="10">
-        <f t="shared" ref="E48:E54" si="0">D48/D47-1</f>
+      <c r="E49" s="10">
+        <f t="shared" ref="E49:E55" si="0">D49/D48-1</f>
         <v>-9.6601122818662066E-2</v>
       </c>
-      <c r="F48" s="9">
-        <f t="shared" ref="F48:F54" si="1">D48-D47</f>
+      <c r="F49" s="9">
+        <f t="shared" ref="F49:F55" si="1">D49-D48</f>
         <v>-349.30000000000018</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>34</v>
       </c>
-      <c r="Q48" s="14"/>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C49" s="8">
+      <c r="Q49" s="14"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C50" s="8">
         <v>36892</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="9">
         <f>E22</f>
         <v>3767.8</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E50" s="10">
         <f t="shared" si="0"/>
         <v>0.15343170268781003</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F50" s="9">
         <f t="shared" si="1"/>
         <v>501.20000000000027</v>
       </c>
-      <c r="G49">
+      <c r="G50">
         <v>98</v>
       </c>
-      <c r="H49" s="9"/>
-      <c r="Q49" s="14"/>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C50" s="8">
+      <c r="H50" s="9"/>
+      <c r="Q50" s="14"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C51" s="8">
         <v>37834</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="9">
         <f>L24</f>
         <v>3540.3</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E51" s="10">
         <f t="shared" si="0"/>
         <v>-6.0380062636021026E-2</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <f t="shared" si="1"/>
         <v>-227.5</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <v>31</v>
       </c>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C51" s="8">
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C52" s="8">
         <v>39692</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D52" s="9">
         <f>M29</f>
         <v>3844.3</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E52" s="10">
         <f t="shared" si="0"/>
         <v>8.586842922916138E-2</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="9">
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>61</v>
       </c>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C52" s="8">
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C53" s="8">
         <v>40118</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D53" s="9">
         <f>O30</f>
         <v>3706.3</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E53" s="10">
         <f t="shared" si="0"/>
         <v>-3.5897302499804939E-2</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F53" s="9">
         <f t="shared" si="1"/>
         <v>-138</v>
       </c>
-      <c r="G52">
+      <c r="G53">
         <v>14</v>
       </c>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C53" s="11">
-        <v>43831</v>
-      </c>
-      <c r="D53" s="9">
-        <f>E41</f>
-        <v>4710.2</v>
-      </c>
-      <c r="E53" s="10">
-        <f t="shared" si="0"/>
-        <v>0.27086312494941045</v>
-      </c>
-      <c r="F53" s="9">
-        <f t="shared" si="1"/>
-        <v>1003.8999999999996</v>
-      </c>
-      <c r="G53">
-        <v>123</v>
-      </c>
       <c r="H53" s="9"/>
-      <c r="I53" s="14"/>
     </row>
     <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="11">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="D54" s="9">
-        <f>H41</f>
-        <v>3761.3</v>
+        <f>E41</f>
+        <v>4700.3</v>
       </c>
       <c r="E54" s="10">
         <f t="shared" si="0"/>
-        <v>-0.20145641374039314</v>
+        <v>0.2681919974098157</v>
       </c>
       <c r="F54" s="9">
         <f t="shared" si="1"/>
-        <v>-948.89999999999964</v>
+        <v>994</v>
       </c>
       <c r="G54">
+        <v>123</v>
+      </c>
+      <c r="H54" s="9"/>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C55" s="11">
+        <v>43922</v>
+      </c>
+      <c r="D55" s="9">
+        <f>H41</f>
+        <v>3751.6</v>
+      </c>
+      <c r="E55" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.20183818054166758</v>
+      </c>
+      <c r="F55" s="9">
+        <f t="shared" si="1"/>
+        <v>-948.70000000000027</v>
+      </c>
+      <c r="G55">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE12DDDE-D5FD-472E-A181-D766DC01E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9D25E7-910B-42E3-BE0D-911E90CCBCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1185" windowWidth="18510" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="1035" windowWidth="20205" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
   <dimension ref="B1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2347,9 +2347,11 @@
         <v>4713.8999999999996</v>
       </c>
       <c r="F45" s="20">
-        <v>4703.7</v>
-      </c>
-      <c r="G45" s="20"/>
+        <v>4711.8999999999996</v>
+      </c>
+      <c r="G45" s="20">
+        <v>4726</v>
+      </c>
       <c r="H45" s="16"/>
       <c r="I45" s="20"/>
       <c r="J45" s="4"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9D25E7-910B-42E3-BE0D-911E90CCBCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA5E265-2105-49F2-9774-224963930B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="1035" windowWidth="20205" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="435" windowWidth="20205" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
   <dimension ref="B1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2350,9 +2350,11 @@
         <v>4711.8999999999996</v>
       </c>
       <c r="G45" s="20">
-        <v>4726</v>
-      </c>
-      <c r="H45" s="16"/>
+        <v>4725.5</v>
+      </c>
+      <c r="H45" s="16">
+        <v>4735.6000000000004</v>
+      </c>
       <c r="I45" s="20"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -2509,22 +2511,22 @@
     </row>
     <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="11">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="D54" s="9">
-        <f>E41</f>
-        <v>4700.3</v>
+        <f>F41</f>
+        <v>4709.6000000000004</v>
       </c>
       <c r="E54" s="10">
         <f t="shared" si="0"/>
-        <v>0.2681919974098157</v>
+        <v>0.27070123843185923</v>
       </c>
       <c r="F54" s="9">
         <f t="shared" si="1"/>
-        <v>994</v>
+        <v>1003.3000000000002</v>
       </c>
       <c r="G54">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="14"/>
@@ -2539,11 +2541,11 @@
       </c>
       <c r="E55" s="10">
         <f t="shared" si="0"/>
-        <v>-0.20183818054166758</v>
+        <v>-0.20341430270086636</v>
       </c>
       <c r="F55" s="9">
         <f t="shared" si="1"/>
-        <v>-948.70000000000027</v>
+        <v>-958.00000000000045</v>
       </c>
       <c r="G55">
         <v>2</v>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA5E265-2105-49F2-9774-224963930B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B857864-1F1C-4412-AF42-503DD4F8EAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="435" windowWidth="20205" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="1560" windowWidth="19965" windowHeight="9690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2353,9 +2353,11 @@
         <v>4725.5</v>
       </c>
       <c r="H45" s="16">
-        <v>4735.6000000000004</v>
-      </c>
-      <c r="I45" s="20"/>
+        <v>4740.2</v>
+      </c>
+      <c r="I45" s="20">
+        <v>4749.8999999999996</v>
+      </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B857864-1F1C-4412-AF42-503DD4F8EAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10741ED2-E007-469C-843C-F3EABD601E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="1560" windowWidth="19965" windowHeight="9690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="13560" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2356,9 +2356,11 @@
         <v>4740.2</v>
       </c>
       <c r="I45" s="20">
-        <v>4749.8999999999996</v>
-      </c>
-      <c r="J45" s="4"/>
+        <v>4748.2</v>
+      </c>
+      <c r="J45" s="4">
+        <v>4755.3</v>
+      </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="16"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10741ED2-E007-469C-843C-F3EABD601E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152A6ACD-B370-4A30-ABE1-6F479BA7719D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="13560" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19305" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
   <dimension ref="B1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2359,9 +2359,11 @@
         <v>4748.2</v>
       </c>
       <c r="J45" s="4">
-        <v>4755.3</v>
-      </c>
-      <c r="K45" s="4"/>
+        <v>4756.5</v>
+      </c>
+      <c r="K45" s="4">
+        <v>4746.2</v>
+      </c>
       <c r="L45" s="4"/>
       <c r="M45" s="16"/>
       <c r="N45" s="4"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152A6ACD-B370-4A30-ABE1-6F479BA7719D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246B5257-D034-474F-AC78-00720B483DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19305" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="1020" windowWidth="19725" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
   <dimension ref="B1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2362,9 +2362,11 @@
         <v>4756.5</v>
       </c>
       <c r="K45" s="4">
-        <v>4746.2</v>
-      </c>
-      <c r="L45" s="4"/>
+        <v>4747.2</v>
+      </c>
+      <c r="L45" s="4">
+        <v>4744.8999999999996</v>
+      </c>
       <c r="M45" s="16"/>
       <c r="N45" s="4"/>
       <c r="O45" s="16"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246B5257-D034-474F-AC78-00720B483DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEB305D-FF46-4E49-8861-C315D9ECCA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="765" yWindow="1020" windowWidth="19725" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,7 +632,7 @@
   <dimension ref="B1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2365,9 +2365,11 @@
         <v>4747.2</v>
       </c>
       <c r="L45" s="4">
-        <v>4744.8999999999996</v>
-      </c>
-      <c r="M45" s="16"/>
+        <v>4756</v>
+      </c>
+      <c r="M45" s="16">
+        <v>4759.1000000000004</v>
+      </c>
       <c r="N45" s="4"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEB305D-FF46-4E49-8861-C315D9ECCA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B93FF2C-9BA0-4FD4-8371-B6F1A1E1CBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="1020" windowWidth="19725" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19725" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
   <dimension ref="B1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2368,9 +2368,11 @@
         <v>4756</v>
       </c>
       <c r="M45" s="16">
-        <v>4759.1000000000004</v>
-      </c>
-      <c r="N45" s="4"/>
+        <v>4758.7</v>
+      </c>
+      <c r="N45" s="4">
+        <v>4761.8</v>
+      </c>
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
       <c r="Q45" s="14"/>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B93FF2C-9BA0-4FD4-8371-B6F1A1E1CBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D622A9-48B3-438E-81C0-6D10A88A6690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19725" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="1020" windowWidth="19725" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
   <dimension ref="B1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2371,9 +2371,11 @@
         <v>4758.7</v>
       </c>
       <c r="N45" s="4">
-        <v>4761.8</v>
-      </c>
-      <c r="O45" s="16"/>
+        <v>4764.3</v>
+      </c>
+      <c r="O45" s="16">
+        <v>4769.1000000000004</v>
+      </c>
       <c r="P45" s="16"/>
       <c r="Q45" s="14"/>
     </row>

--- a/raw_data/raw_employment_data.xlsx
+++ b/raw_data/raw_employment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dol-smb\dol_shared\DOL0A1FS2\rscommon\Brown, James\Press Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D622A9-48B3-438E-81C0-6D10A88A6690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA65B59-3F0E-42A4-B299-6C8D4931B6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="765" yWindow="1020" windowWidth="19725" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,7 +632,7 @@
   <dimension ref="B1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2374,9 +2374,11 @@
         <v>4764.3</v>
       </c>
       <c r="O45" s="16">
-        <v>4769.1000000000004</v>
-      </c>
-      <c r="P45" s="16"/>
+        <v>4770.2</v>
+      </c>
+      <c r="P45" s="16">
+        <v>4776.8</v>
+      </c>
       <c r="Q45" s="14"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
